--- a/Excel Data/TDR/SpecialRateFCY.xlsx
+++ b/Excel Data/TDR/SpecialRateFCY.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>CUSTOMER.ID</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>TDRUSDFM01</t>
+  </si>
+  <si>
+    <t>INTEREST.RATE</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>CUST.REMARKS:1</t>
+  </si>
+  <si>
+    <t>TAX.INTEREST.TYPE:1</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>CHRG.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>FINAL.MATURITY</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
   </si>
 </sst>
 </file>
@@ -357,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,10 +399,11 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,10 +417,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11907002</v>
       </c>
@@ -402,11 +463,12 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>